--- a/data-warehouse/human-generated/dave-and-busters.xlsx
+++ b/data-warehouse/human-generated/dave-and-busters.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Code\ib-bench\data-factory\human-generated\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Code\ib-bench\data-warehouse\human-generated\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F969E9-EBAA-4197-A49D-D48A61175A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9564B3-C24B-430F-9AE1-FFDBEEE86076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="1350" windowWidth="19942" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22875" windowHeight="13141" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LBO" sheetId="14" r:id="rId1"/>
@@ -1817,8 +1817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S215"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="E102" zoomScale="90" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="S170" sqref="S170"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A79" zoomScale="90" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="K92" sqref="K92 K65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
